--- a/00_Data/Supplementary Data.xlsx
+++ b/00_Data/Supplementary Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Susi\Desktop\phenology_Rev\Files_Resubmission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Susi\Desktop\phenology_Rev\Files_Resubmission\Supplementary data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FC4B300-2747-4A53-97B6-E53FF7C8A9C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5875CB78-A21F-4916-B6FE-D5A64D688DD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="865" firstSheet="2" activeTab="6" xr2:uid="{C94065E4-C93C-4356-9C73-18A208824149}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="865" firstSheet="1" activeTab="8" xr2:uid="{C94065E4-C93C-4356-9C73-18A208824149}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplementary Table S1" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8435" uniqueCount="1549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8424" uniqueCount="1551">
   <si>
     <t>Name</t>
   </si>
@@ -4240,9 +4240,6 @@
     <t>PercentID</t>
   </si>
   <si>
-    <t>log2FoldChange</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
@@ -4492,24 +4489,6 @@
     <t>Stress Value</t>
   </si>
   <si>
-    <t>Df</t>
-  </si>
-  <si>
-    <t>SumsOfSqs</t>
-  </si>
-  <si>
-    <t>MeanSqs</t>
-  </si>
-  <si>
-    <t>F.Model</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>Pr(&gt;F)</t>
-  </si>
-  <si>
     <t>***</t>
   </si>
   <si>
@@ -4519,13 +4498,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Stratum</t>
-  </si>
-  <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>Microhabitat</t>
   </si>
   <si>
     <t>tree.species</t>
@@ -4676,21 +4649,12 @@
     <t>Supplementary Table S4: Quality estimates and error rate for each run; initial, assembled, quality-trimmed, and unique number of reads for each run</t>
   </si>
   <si>
-    <t>Supplementary Table S3: OTU abundances, taxonomic assignment and functional traits</t>
-  </si>
-  <si>
     <t>Supplementary Table S2: Primer tags for second PCR amplification</t>
   </si>
   <si>
     <t>Supplementary Table S1: Primer pairs used in this study</t>
   </si>
   <si>
-    <t>Season:Stratum</t>
-  </si>
-  <si>
-    <t>Season:Microhabitat</t>
-  </si>
-  <si>
     <t>Season:tree.species</t>
   </si>
   <si>
@@ -4715,17 +4679,59 @@
     <t>Soil</t>
   </si>
   <si>
-    <t>Ground Stratum</t>
-  </si>
-  <si>
-    <t>Canopy Stratum</t>
-  </si>
-  <si>
-    <t>Funktional Diversity Across Both Strata</t>
+    <t>F-value</t>
+  </si>
+  <si>
+    <t>R²</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>log.2fold.Change</t>
+  </si>
+  <si>
+    <t>Df</t>
+  </si>
+  <si>
+    <t>SumsOfSqs</t>
+  </si>
+  <si>
+    <t>MeanSqs</t>
+  </si>
+  <si>
+    <t>F.Model</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Pr(&gt;F)</t>
+  </si>
+  <si>
+    <t>Microhabitat:Stratum</t>
+  </si>
+  <si>
+    <t>Season:Microhabitat:Stratum</t>
+  </si>
+  <si>
+    <t>adonis(Cerco.OTU.rel ~ Season * Microhabitat%in%Stratum, strata= NULL , data = Cerco.env.all, permutations=999</t>
+  </si>
+  <si>
+    <t>Microhabitat:Stratum:tree.species</t>
+  </si>
+  <si>
+    <t>Season:Microhabitat:Stratum:tree.species</t>
+  </si>
+  <si>
+    <t>adonis(Cerco.OTU.rel~ Season * Microhabitat%in%Stratum * tree.species, strata= NULL , data = Cerco.env.all, permutations=999)</t>
+  </si>
+  <si>
+    <t>Supplementary Table S3: OTU abundances, taxonomic assignment and nutrition types</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Supplementary Table S8: Results of permutational multivariate analysis of variance (perMANOVA) from the </t>
+      <t xml:space="preserve">Supplementary Table S8: Results of permutational multivariate analysis of variance (PERMANOVA) from the </t>
     </r>
     <r>
       <rPr>
@@ -4746,7 +4752,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> function;</t>
+      <t xml:space="preserve"> function; differences in functional diversity.</t>
     </r>
     <r>
       <rPr>
@@ -4755,69 +4761,21 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> seasonal effect on functional diversity. Factors were used independently with the default of 999 permutations (Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1).</t>
+      <t xml:space="preserve"> Factors were used independently with the default of 999 permutations (Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘(*)’ 0.1 ‘ ’ 1).</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Supplementary Table S7: Results of permutational multivariate analysis of variance (perMANOVA) from the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>adonis</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> function</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>. Factors were used independently with the default of 999 permutations</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1).</t>
-    </r>
+    <t>Supplementary Table S7: Results of permutational multivariate analysis of variance (PERMANOVA) from the adonis function; seasonal effect on beta diversity. Factors were calculated independently with 999 permutations as default setting (Signif. codes: 0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4935,6 +4893,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4986,7 +4950,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5087,13 +5051,46 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5108,32 +5105,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5456,33 +5437,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8940EA24-28D5-462C-A9AA-6F4CA4DB0CCA}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="54.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
       <c r="B1" s="19"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
@@ -5490,13 +5468,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
-        <v>1521</v>
-      </c>
-      <c r="B4" s="46"/>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="61" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B4" s="61"/>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
@@ -5504,7 +5482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
@@ -5512,13 +5490,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>1520</v>
+        <v>1511</v>
       </c>
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -5526,13 +5504,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="46"/>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="61"/>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>10</v>
       </c>
@@ -5540,7 +5518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>12</v>
       </c>
@@ -5585,7 +5563,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>1532</v>
+        <v>1522</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="22"/>
@@ -9230,7 +9208,7 @@
   <dimension ref="A1:LW786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="E3:K4"/>
+      <selection activeCell="A569" sqref="A569:XFD569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9247,7 +9225,7 @@
   <sheetData>
     <row r="1" spans="1:335" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1531</v>
+        <v>1548</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -9926,7 +9904,7 @@
         <v>1394</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>137</v>
@@ -19534,10 +19512,10 @@
         <v>689</v>
       </c>
       <c r="H277" s="22" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
       <c r="I277" s="22" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="J277" s="22">
         <v>100</v>
@@ -37373,7 +37351,7 @@
   <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37392,7 +37370,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="29"/>
@@ -37415,44 +37393,44 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="62" t="s">
         <v>1375</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="62" t="s">
         <v>1376</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="62" t="s">
         <v>1377</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="62" t="s">
         <v>1378</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="62" t="s">
         <v>1379</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="62" t="s">
         <v>1380</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="62" t="s">
         <v>1381</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="62" t="s">
         <v>1382</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="62" t="s">
         <v>1393</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
@@ -37538,41 +37516,41 @@
       <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="62" t="s">
         <v>1386</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="62" t="s">
         <v>1387</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="62" t="s">
         <v>1388</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="62" t="s">
         <v>1389</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="62" t="s">
         <v>1390</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="62" t="s">
         <v>1391</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="62" t="s">
         <v>1392</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="62" t="s">
         <v>1388</v>
       </c>
       <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -37967,6 +37945,16 @@
     <sortCondition ref="E1"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="H8:H9"/>
@@ -37974,16 +37962,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37994,7 +37972,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38012,7 +37990,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -38081,20 +38059,20 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="A5" s="64" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -38106,7 +38084,7 @@
     </row>
     <row r="7" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -38118,7 +38096,7 @@
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -38130,7 +38108,7 @@
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>1519</v>
+        <v>1510</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
@@ -38142,7 +38120,7 @@
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
-        <v>1518</v>
+        <v>1509</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -38154,7 +38132,7 @@
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -38165,30 +38143,30 @@
       <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B12" s="50"/>
+      <c r="A12" s="65" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B12" s="65"/>
       <c r="C12" s="41" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>1499</v>
+        <v>1490</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>1500</v>
+        <v>1491</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B13" s="51"/>
+      <c r="A13" s="66" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B13" s="66"/>
       <c r="C13" s="22">
         <v>227</v>
       </c>
@@ -38205,10 +38183,10 @@
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B14" s="52"/>
+      <c r="A14" s="67" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B14" s="67"/>
       <c r="C14" s="27">
         <v>63</v>
       </c>
@@ -38226,7 +38204,7 @@
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>1513</v>
+        <v>1504</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -38238,31 +38216,31 @@
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>1510</v>
+        <v>1501</v>
       </c>
       <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="B17" s="22">
         <v>850096515.55923986</v>
@@ -38286,7 +38264,7 @@
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>1512</v>
+        <v>1503</v>
       </c>
       <c r="B18" s="22">
         <v>3549399126.4269643</v>
@@ -38314,7 +38292,7 @@
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>1489</v>
+        <v>1482</v>
       </c>
       <c r="B20" s="27">
         <v>4399495641.9862041</v>
@@ -38343,9 +38321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF48457-DD36-41DF-B184-0CD37741E156}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -38358,7 +38334,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -38375,26 +38351,26 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="48" t="s">
         <v>1394</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="48" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>1397</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>1398</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B4" s="44">
         <v>12.08812253</v>
@@ -38412,7 +38388,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B5" s="44">
         <v>10.962155940000001</v>
@@ -38430,7 +38406,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
       <c r="B6" s="44">
         <v>8.8586410640000004</v>
@@ -38448,7 +38424,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B7" s="44">
         <v>6.2247388700000004</v>
@@ -38466,7 +38442,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B8" s="44">
         <v>5.4682033270000003</v>
@@ -38484,7 +38460,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B9" s="44">
         <v>3.4467426639999998</v>
@@ -38502,7 +38478,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B10" s="44">
         <v>2.187750614</v>
@@ -38520,7 +38496,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B11" s="44">
         <v>2.1229808120000002</v>
@@ -38538,7 +38514,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B12" s="44">
         <v>2.0927579029999999</v>
@@ -38556,7 +38532,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B13" s="44">
         <v>1.989730826</v>
@@ -38574,7 +38550,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B14" s="44">
         <v>1.9583258610000001</v>
@@ -38592,7 +38568,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B15" s="44">
         <v>1.896448388</v>
@@ -38610,7 +38586,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B16" s="44">
         <v>1.7553462980000001</v>
@@ -38628,7 +38604,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B17" s="44">
         <v>1.6660814779999999</v>
@@ -38646,7 +38622,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B18" s="44">
         <v>1.6580766</v>
@@ -38664,7 +38640,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B19" s="44">
         <v>1.5312384619999999</v>
@@ -38682,7 +38658,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B20" s="44">
         <v>1.523761446</v>
@@ -38700,7 +38676,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B21" s="44">
         <v>1.492275928</v>
@@ -38718,7 +38694,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B22" s="44">
         <v>1.487251839</v>
@@ -38736,7 +38712,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B23" s="44">
         <v>1.473091538</v>
@@ -38754,7 +38730,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B24" s="44">
         <v>1.462763947</v>
@@ -38772,7 +38748,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B25" s="44">
         <v>1.419198612</v>
@@ -38790,7 +38766,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B26" s="44">
         <v>1.394401835</v>
@@ -38808,7 +38784,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B27" s="44">
         <v>1.3868840659999999</v>
@@ -38826,7 +38802,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B28" s="44">
         <v>1.347572081</v>
@@ -38844,7 +38820,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B29" s="44">
         <v>1.3125417669999999</v>
@@ -38862,7 +38838,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B30" s="44">
         <v>1.27755109</v>
@@ -38880,7 +38856,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B31" s="44">
         <v>1.2773038409999999</v>
@@ -38898,7 +38874,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B32" s="44">
         <v>1.27666623</v>
@@ -38916,7 +38892,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B33" s="44">
         <v>1.2365781950000001</v>
@@ -38934,7 +38910,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B34" s="44">
         <v>1.235026271</v>
@@ -38952,7 +38928,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B35" s="44">
         <v>1.2321464310000001</v>
@@ -38970,7 +38946,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B36" s="44">
         <v>1.2318225679999999</v>
@@ -38988,7 +38964,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B37" s="44">
         <v>1.200040864</v>
@@ -39006,7 +38982,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B38" s="44">
         <v>1.1976524580000001</v>
@@ -39024,7 +39000,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B39" s="44">
         <v>1.178608211</v>
@@ -39042,7 +39018,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B40" s="44">
         <v>1.1476926329999999</v>
@@ -39060,7 +39036,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B41" s="44">
         <v>1.1338066870000001</v>
@@ -39078,7 +39054,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B42" s="44">
         <v>1.1300930199999999</v>
@@ -39096,7 +39072,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B43" s="44">
         <v>1.1295358900000001</v>
@@ -39114,7 +39090,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B44" s="44">
         <v>1.1060715919999999</v>
@@ -39132,7 +39108,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B45" s="44">
         <v>1.1035737459999999</v>
@@ -39150,7 +39126,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B46" s="44">
         <v>1.0905980399999999</v>
@@ -39168,7 +39144,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B47" s="44">
         <v>1.080377344</v>
@@ -39186,7 +39162,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B48" s="44">
         <v>1.057942283</v>
@@ -39204,7 +39180,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B49" s="44">
         <v>1.055094942</v>
@@ -39222,7 +39198,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B50" s="44">
         <v>1.043693277</v>
@@ -39240,7 +39216,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B51" s="44">
         <v>1.0335238309999999</v>
@@ -39258,7 +39234,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B52" s="44">
         <v>1.029538788</v>
@@ -39276,7 +39252,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B53" s="44">
         <v>1.0226786050000001</v>
@@ -39294,7 +39270,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B54" s="44">
         <v>1.019376759</v>
@@ -39312,7 +39288,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B55" s="44">
         <v>1.0185843320000001</v>
@@ -39330,7 +39306,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B56" s="44">
         <v>1.0155092640000001</v>
@@ -39348,7 +39324,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B57" s="44">
         <v>1.011140586</v>
@@ -39366,7 +39342,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B58" s="44">
         <v>-1.0023754229999999</v>
@@ -39384,7 +39360,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B59" s="44">
         <v>-1.0026028579999999</v>
@@ -39402,7 +39378,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B60" s="44">
         <v>-1.0699989059999999</v>
@@ -39420,7 +39396,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B61" s="44">
         <v>-1.0784751990000001</v>
@@ -39438,7 +39414,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B62" s="44">
         <v>-1.099286676</v>
@@ -39456,7 +39432,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B63" s="44">
         <v>-1.158795985</v>
@@ -39474,7 +39450,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="44" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B64" s="44">
         <v>-1.16007661</v>
@@ -39492,7 +39468,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B65" s="44">
         <v>-1.186242083</v>
@@ -39510,7 +39486,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B66" s="44">
         <v>-1.343836832</v>
@@ -39528,7 +39504,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="44" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B67" s="44">
         <v>-1.345173261</v>
@@ -39546,7 +39522,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B68" s="44">
         <v>-1.3514657320000001</v>
@@ -39564,7 +39540,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B69" s="44">
         <v>-1.4199459809999999</v>
@@ -39582,7 +39558,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B70" s="44">
         <v>-1.4655000419999999</v>
@@ -39600,7 +39576,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B71" s="44">
         <v>-1.466706826</v>
@@ -39618,7 +39594,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B72" s="44">
         <v>-1.6125944750000001</v>
@@ -39636,7 +39612,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="44" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B73" s="44">
         <v>-1.6720777680000001</v>
@@ -39654,7 +39630,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="44" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B74" s="44">
         <v>-2.0352239019999998</v>
@@ -39672,7 +39648,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B75" s="44">
         <v>-2.1139831130000002</v>
@@ -39690,7 +39666,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B76" s="44">
         <v>-2.1883200340000002</v>
@@ -39708,7 +39684,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="44" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B77" s="44">
         <v>-2.4459153910000002</v>
@@ -39726,7 +39702,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B78" s="44">
         <v>-4.644928588</v>
@@ -39744,7 +39720,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B79" s="44">
         <v>-4.7923423969999996</v>
@@ -39762,7 +39738,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B80" s="44">
         <v>-6.327353521</v>
@@ -39780,7 +39756,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B81" s="44">
         <v>-10.456646559999999</v>
@@ -39798,7 +39774,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B82" s="44">
         <v>-11.101279590000001</v>
@@ -39816,7 +39792,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B83" s="44">
         <v>-11.63974024</v>
@@ -39834,7 +39810,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B84" s="44">
         <v>-11.68549934</v>
@@ -39857,1021 +39833,1153 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82243FFD-BB9A-4826-B2F5-9D18AE298C59}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="22" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="22" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="11" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="22"/>
+    <col min="4" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="22" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>1537</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>1482</v>
-      </c>
       <c r="D4" s="22" t="s">
-        <v>1483</v>
+        <v>1538</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>1484</v>
+        <v>1539</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>1485</v>
+        <v>1540</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>1496</v>
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
+        <v>1487</v>
       </c>
       <c r="B5" s="22">
         <v>1</v>
       </c>
       <c r="C5" s="22">
-        <v>0.78839999999999999</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="D5" s="22">
-        <v>0.78835</v>
+        <v>0.93440000000000001</v>
       </c>
       <c r="E5" s="22">
-        <v>4.2765000000000004</v>
+        <v>8.1583000000000006</v>
       </c>
       <c r="F5" s="22">
-        <v>0.14849999999999999</v>
+        <v>1.4789999999999999E-2</v>
       </c>
       <c r="G5" s="22">
         <v>1E-3</v>
       </c>
       <c r="H5" s="22" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B6" s="22">
+        <v>2</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.90071000000000001</v>
+      </c>
+      <c r="E6" s="22">
+        <v>7.8642000000000003</v>
+      </c>
+      <c r="F6" s="22">
+        <v>2.852E-2</v>
+      </c>
+      <c r="G6" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B7" s="22">
+        <v>8</v>
+      </c>
+      <c r="C7" s="22">
+        <v>24.341000000000001</v>
+      </c>
+      <c r="D7" s="22">
+        <v>3.0425900000000001</v>
+      </c>
+      <c r="E7" s="22">
+        <v>26.565300000000001</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.38532</v>
+      </c>
+      <c r="G7" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B8" s="22">
+        <v>2</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.215</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.10743999999999999</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="F8" s="22">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B9" s="22">
+        <v>8</v>
+      </c>
+      <c r="C9" s="22">
+        <v>3.036</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.37952999999999998</v>
+      </c>
+      <c r="E9" s="22">
+        <v>3.3136999999999999</v>
+      </c>
+      <c r="F9" s="22">
+        <v>4.8059999999999999E-2</v>
+      </c>
+      <c r="G9" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B10" s="22">
+        <v>16</v>
+      </c>
+      <c r="C10" s="22">
+        <v>3.8220000000000001</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.2389</v>
+      </c>
+      <c r="E10" s="22">
+        <v>2.0859000000000001</v>
+      </c>
+      <c r="F10" s="22">
+        <v>6.0510000000000001E-2</v>
+      </c>
+      <c r="G10" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B11" s="22">
+        <v>16</v>
+      </c>
+      <c r="C11" s="22">
+        <v>1.99</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.12436</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1.0858000000000001</v>
+      </c>
+      <c r="F11" s="22">
+        <v>3.15E-2</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B12" s="22">
+        <v>236</v>
+      </c>
+      <c r="C12" s="22">
+        <v>27.03</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.11453000000000001</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.42788999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B13" s="22">
+        <v>289</v>
+      </c>
+      <c r="C13" s="22">
+        <v>63.168999999999997</v>
+      </c>
+      <c r="D13" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B6" s="22">
-        <v>2</v>
-      </c>
-      <c r="C6" s="22">
+      <c r="B16" s="22">
+        <v>1</v>
+      </c>
+      <c r="C16" s="50">
+        <v>0.78839999999999999</v>
+      </c>
+      <c r="D16" s="50">
+        <v>4.2765000000000004</v>
+      </c>
+      <c r="E16" s="49">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="F16" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B17" s="22">
+        <v>2</v>
+      </c>
+      <c r="C17" s="50">
         <v>0.51649999999999996</v>
       </c>
-      <c r="D6" s="22">
-        <v>0.25827</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="D17" s="50">
         <v>1.401</v>
       </c>
-      <c r="F6" s="22">
+      <c r="E17" s="49">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="G6" s="22">
+      <c r="F17" s="22">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H6" s="22" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B7" s="22">
-        <v>2</v>
-      </c>
-      <c r="C7" s="22">
+      <c r="G17" s="22" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B18" s="22">
+        <v>2</v>
+      </c>
+      <c r="C18" s="50">
         <v>0.50129999999999997</v>
       </c>
-      <c r="D7" s="22">
-        <v>0.25065999999999999</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="D18" s="50">
         <v>1.3596999999999999</v>
       </c>
-      <c r="F7" s="22">
+      <c r="E18" s="49">
         <v>9.443E-2</v>
       </c>
-      <c r="G7" s="22">
+      <c r="F18" s="22">
         <v>0.123</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B8" s="22">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B19" s="22">
         <v>19</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C19" s="50">
         <v>3.5024999999999999</v>
       </c>
-      <c r="D8" s="22">
-        <v>0.18434</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="D19" s="50">
         <v>0.65976999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B9" s="22">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B20" s="22">
         <v>24</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C20" s="50">
         <v>5.3087</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D20" s="50"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="68" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="25" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B24" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="C24" s="50">
+        <v>0.24990000000000001</v>
+      </c>
+      <c r="D24" s="50">
+        <v>2.60053</v>
+      </c>
+      <c r="E24" s="49">
+        <v>6.9779999999999995E-2</v>
+      </c>
+      <c r="F24" s="22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B25" s="22">
+        <v>2</v>
+      </c>
+      <c r="C25" s="50">
+        <v>0.4118</v>
+      </c>
+      <c r="D25" s="50">
+        <v>2.1426599999999998</v>
+      </c>
+      <c r="E25" s="49">
+        <v>0.11498999999999999</v>
+      </c>
+      <c r="F25" s="22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B26" s="22">
+        <v>2</v>
+      </c>
+      <c r="C26" s="50">
+        <v>0.1328</v>
+      </c>
+      <c r="D26" s="50">
+        <v>0.69113999999999998</v>
+      </c>
+      <c r="E26" s="49">
+        <v>3.7089999999999998E-2</v>
+      </c>
+      <c r="F26" s="22">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>1481</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="B27" s="22">
+        <v>29</v>
+      </c>
+      <c r="C27" s="50">
+        <v>2.7869999999999999</v>
+      </c>
+      <c r="D27" s="50">
+        <v>0.77814000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>1482</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="B28" s="22">
+        <v>34</v>
+      </c>
+      <c r="C28" s="50">
+        <v>3.5815999999999999</v>
+      </c>
+      <c r="D28" s="50"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="68" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="25" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B32" s="22">
+        <v>1</v>
+      </c>
+      <c r="C32" s="50">
+        <v>0.4526</v>
+      </c>
+      <c r="D32" s="50">
+        <v>2.2565</v>
+      </c>
+      <c r="E32" s="49">
+        <v>5.4460000000000001E-2</v>
+      </c>
+      <c r="F32" s="22">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
         <v>1484</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="B33" s="22">
+        <v>2</v>
+      </c>
+      <c r="C33" s="50">
+        <v>2.0081000000000002</v>
+      </c>
+      <c r="D33" s="50">
+        <v>5.0057999999999998</v>
+      </c>
+      <c r="E33" s="49">
+        <v>0.24163999999999999</v>
+      </c>
+      <c r="F33" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B34" s="22">
+        <v>2</v>
+      </c>
+      <c r="C34" s="50">
+        <v>0.43409999999999999</v>
+      </c>
+      <c r="D34" s="50">
+        <v>1.0822000000000001</v>
+      </c>
+      <c r="E34" s="49">
+        <v>5.2240000000000002E-2</v>
+      </c>
+      <c r="F34" s="22">
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B35" s="22">
+        <v>27</v>
+      </c>
+      <c r="C35" s="50">
+        <v>5.4154</v>
+      </c>
+      <c r="D35" s="50">
+        <v>0.65166000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B36" s="22">
+        <v>32</v>
+      </c>
+      <c r="C36" s="50">
+        <v>8.3102</v>
+      </c>
+      <c r="D36" s="50"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="68" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="25" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B40" s="22">
+        <v>1</v>
+      </c>
+      <c r="C40" s="50">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D40" s="50">
+        <v>3.5217000000000001</v>
+      </c>
+      <c r="E40" s="49">
+        <v>8.3659999999999998E-2</v>
+      </c>
+      <c r="F40" s="22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B41" s="22">
+        <v>2</v>
+      </c>
+      <c r="C41" s="50">
+        <v>0.57809999999999995</v>
+      </c>
+      <c r="D41" s="50">
+        <v>3.6615000000000002</v>
+      </c>
+      <c r="E41" s="49">
+        <v>0.17396</v>
+      </c>
+      <c r="F41" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B42" s="22">
+        <v>2</v>
+      </c>
+      <c r="C42" s="50">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="D42" s="50">
+        <v>0.62609999999999999</v>
+      </c>
+      <c r="E42" s="49">
+        <v>2.9749999999999999E-2</v>
+      </c>
+      <c r="F42" s="22">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B43" s="22">
+        <v>30</v>
+      </c>
+      <c r="C43" s="50">
+        <v>2.3683000000000001</v>
+      </c>
+      <c r="D43" s="50">
+        <v>0.71264000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B44" s="22">
+        <v>35</v>
+      </c>
+      <c r="C44" s="50">
+        <v>3.3233000000000001</v>
+      </c>
+      <c r="D44" s="50"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="68" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="25" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B48" s="22">
+        <v>1</v>
+      </c>
+      <c r="C48" s="50">
+        <v>0.62419999999999998</v>
+      </c>
+      <c r="D48" s="50">
+        <v>6.3760000000000003</v>
+      </c>
+      <c r="E48" s="49">
+        <v>5.8319999999999997E-2</v>
+      </c>
+      <c r="F48" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B49" s="22">
+        <v>2</v>
+      </c>
+      <c r="C49" s="50">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="D49" s="50">
+        <v>4.7774000000000001</v>
+      </c>
+      <c r="E49" s="49">
+        <v>8.7389999999999995E-2</v>
+      </c>
+      <c r="F49" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B50" s="22">
+        <v>2</v>
+      </c>
+      <c r="C50" s="50">
+        <v>0.13730000000000001</v>
+      </c>
+      <c r="D50" s="50">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="E50" s="49">
+        <v>1.2829999999999999E-2</v>
+      </c>
+      <c r="F50" s="22">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B51" s="22">
+        <v>92</v>
+      </c>
+      <c r="C51" s="50">
+        <v>9.0068999999999999</v>
+      </c>
+      <c r="D51" s="50">
+        <v>0.84147000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B52" s="22">
+        <v>97</v>
+      </c>
+      <c r="C52" s="50">
+        <v>10.703799999999999</v>
+      </c>
+      <c r="D52" s="50"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="68" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="25" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B56" s="22">
+        <v>1</v>
+      </c>
+      <c r="C56" s="50">
+        <v>1.0861000000000001</v>
+      </c>
+      <c r="D56" s="50">
+        <v>8.7836999999999996</v>
+      </c>
+      <c r="E56" s="49">
+        <v>0.20699000000000001</v>
+      </c>
+      <c r="F56" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B57" s="22">
+        <v>2</v>
+      </c>
+      <c r="C57" s="50">
+        <v>0.49159999999999998</v>
+      </c>
+      <c r="D57" s="50">
+        <v>1.9878</v>
+      </c>
+      <c r="E57" s="49">
+        <v>9.3689999999999996E-2</v>
+      </c>
+      <c r="F57" s="22">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G57" s="22" t="s">
         <v>1485</v>
       </c>
-      <c r="G12" s="22" t="s">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B58" s="22">
+        <v>2</v>
+      </c>
+      <c r="C58" s="50">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="D58" s="50">
+        <v>1.8378000000000001</v>
+      </c>
+      <c r="E58" s="49">
+        <v>8.6620000000000003E-2</v>
+      </c>
+      <c r="F58" s="22">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B59" s="22">
+        <v>26</v>
+      </c>
+      <c r="C59" s="50">
+        <v>3.2149999999999999</v>
+      </c>
+      <c r="D59" s="50">
+        <v>0.61270000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B60" s="22">
+        <v>31</v>
+      </c>
+      <c r="C60" s="50">
+        <v>5.2472000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="68" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B62" s="68"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="25" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B64" s="22">
+        <v>1</v>
+      </c>
+      <c r="C64" s="50">
+        <v>0.31340000000000001</v>
+      </c>
+      <c r="D64" s="50">
+        <v>2.5860699999999999</v>
+      </c>
+      <c r="E64" s="49">
+        <v>7.8049999999999994E-2</v>
+      </c>
+      <c r="F64" s="22">
+        <v>2E-3</v>
+      </c>
+      <c r="G64" s="22" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B13" s="22">
-        <v>1</v>
-      </c>
-      <c r="C13" s="22">
-        <v>0.24990000000000001</v>
-      </c>
-      <c r="D13" s="22">
-        <v>0.24992</v>
-      </c>
-      <c r="E13" s="22">
-        <v>2.60053</v>
-      </c>
-      <c r="F13" s="22">
-        <v>6.9779999999999995E-2</v>
-      </c>
-      <c r="G13" s="22">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B14" s="22">
-        <v>2</v>
-      </c>
-      <c r="C14" s="22">
-        <v>0.4118</v>
-      </c>
-      <c r="D14" s="22">
-        <v>0.20591699999999999</v>
-      </c>
-      <c r="E14" s="22">
-        <v>2.1426599999999998</v>
-      </c>
-      <c r="F14" s="22">
-        <v>0.11498999999999999</v>
-      </c>
-      <c r="G14" s="22">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B15" s="22">
-        <v>2</v>
-      </c>
-      <c r="C15" s="22">
-        <v>0.1328</v>
-      </c>
-      <c r="D15" s="22">
-        <v>6.6420999999999994E-2</v>
-      </c>
-      <c r="E15" s="22">
-        <v>0.69113999999999998</v>
-      </c>
-      <c r="F15" s="22">
-        <v>3.7089999999999998E-2</v>
-      </c>
-      <c r="G15" s="22">
-        <v>0.92400000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B16" s="22">
-        <v>29</v>
-      </c>
-      <c r="C16" s="22">
-        <v>2.7869999999999999</v>
-      </c>
-      <c r="D16" s="22">
-        <v>9.6103999999999995E-2</v>
-      </c>
-      <c r="E16" s="22">
-        <v>0.77814000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B17" s="22">
-        <v>34</v>
-      </c>
-      <c r="C17" s="22">
-        <v>3.5815999999999999</v>
-      </c>
-      <c r="D17" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B65" s="22">
+        <v>2</v>
+      </c>
+      <c r="C65" s="50">
+        <v>0.45850000000000002</v>
+      </c>
+      <c r="D65" s="50">
+        <v>1.8913500000000001</v>
+      </c>
+      <c r="E65" s="49">
+        <v>0.11416</v>
+      </c>
+      <c r="F65" s="22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B66" s="22">
+        <v>2</v>
+      </c>
+      <c r="C66" s="50">
+        <v>0.21410000000000001</v>
+      </c>
+      <c r="D66" s="50">
+        <v>0.88310999999999995</v>
+      </c>
+      <c r="E66" s="49">
+        <v>5.33E-2</v>
+      </c>
+      <c r="F66" s="22">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
         <v>1481</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="B67" s="22">
+        <v>25</v>
+      </c>
+      <c r="C67" s="50">
+        <v>3.0299</v>
+      </c>
+      <c r="D67" s="50">
+        <v>0.75448999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
         <v>1482</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>1484</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>1485</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B21" s="22">
-        <v>1</v>
-      </c>
-      <c r="C21" s="22">
-        <v>0.4526</v>
-      </c>
-      <c r="D21" s="22">
-        <v>0.45258999999999999</v>
-      </c>
-      <c r="E21" s="22">
-        <v>2.2565</v>
-      </c>
-      <c r="F21" s="22">
-        <v>5.4460000000000001E-2</v>
-      </c>
-      <c r="G21" s="22">
-        <v>1.6E-2</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B22" s="22">
-        <v>2</v>
-      </c>
-      <c r="C22" s="22">
-        <v>2.0081000000000002</v>
-      </c>
-      <c r="D22" s="22">
-        <v>1.00403</v>
-      </c>
-      <c r="E22" s="22">
-        <v>5.0057999999999998</v>
-      </c>
-      <c r="F22" s="22">
-        <v>0.24163999999999999</v>
-      </c>
-      <c r="G22" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B23" s="22">
-        <v>2</v>
-      </c>
-      <c r="C23" s="22">
-        <v>0.43409999999999999</v>
-      </c>
-      <c r="D23" s="22">
-        <v>0.21706</v>
-      </c>
-      <c r="E23" s="22">
-        <v>1.0822000000000001</v>
-      </c>
-      <c r="F23" s="22">
-        <v>5.2240000000000002E-2</v>
-      </c>
-      <c r="G23" s="22">
-        <v>0.30099999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B24" s="22">
-        <v>27</v>
-      </c>
-      <c r="C24" s="22">
-        <v>5.4154</v>
-      </c>
-      <c r="D24" s="22">
-        <v>0.20057</v>
-      </c>
-      <c r="E24" s="22">
-        <v>0.65166000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B25" s="22">
-        <v>32</v>
-      </c>
-      <c r="C25" s="22">
-        <v>8.3102</v>
-      </c>
-      <c r="D25" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="22" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>1482</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>1484</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>1485</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B29" s="22">
-        <v>1</v>
-      </c>
-      <c r="C29" s="22">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="D29" s="22">
-        <v>0.27801700000000001</v>
-      </c>
-      <c r="E29" s="22">
-        <v>3.5217000000000001</v>
-      </c>
-      <c r="F29" s="22">
-        <v>8.3659999999999998E-2</v>
-      </c>
-      <c r="G29" s="22">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B30" s="22">
-        <v>2</v>
-      </c>
-      <c r="C30" s="22">
-        <v>0.57809999999999995</v>
-      </c>
-      <c r="D30" s="22">
-        <v>0.28905199999999998</v>
-      </c>
-      <c r="E30" s="22">
-        <v>3.6615000000000002</v>
-      </c>
-      <c r="F30" s="22">
-        <v>0.17396</v>
-      </c>
-      <c r="G30" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B31" s="22">
-        <v>2</v>
-      </c>
-      <c r="C31" s="22">
-        <v>9.8900000000000002E-2</v>
-      </c>
-      <c r="D31" s="22">
-        <v>4.9429000000000001E-2</v>
-      </c>
-      <c r="E31" s="22">
-        <v>0.62609999999999999</v>
-      </c>
-      <c r="F31" s="22">
-        <v>2.9749999999999999E-2</v>
-      </c>
-      <c r="G31" s="22">
-        <v>0.92800000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B32" s="22">
+      <c r="B68" s="22">
         <v>30</v>
       </c>
-      <c r="C32" s="22">
-        <v>2.3683000000000001</v>
-      </c>
-      <c r="D32" s="22">
-        <v>7.8944E-2</v>
-      </c>
-      <c r="E32" s="22">
-        <v>0.71264000000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B33" s="22">
-        <v>35</v>
-      </c>
-      <c r="C33" s="22">
-        <v>3.3233000000000001</v>
-      </c>
-      <c r="D33" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="61" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>1482</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>1484</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>1485</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B37" s="22">
-        <v>1</v>
-      </c>
-      <c r="C37" s="22">
-        <v>0.62419999999999998</v>
-      </c>
-      <c r="D37" s="22">
-        <v>0.62422</v>
-      </c>
-      <c r="E37" s="22">
-        <v>6.3760000000000003</v>
-      </c>
-      <c r="F37" s="22">
-        <v>5.8319999999999997E-2</v>
-      </c>
-      <c r="G37" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B38" s="22">
-        <v>2</v>
-      </c>
-      <c r="C38" s="22">
-        <v>0.93540000000000001</v>
-      </c>
-      <c r="D38" s="22">
-        <v>0.46771000000000001</v>
-      </c>
-      <c r="E38" s="22">
-        <v>4.7774000000000001</v>
-      </c>
-      <c r="F38" s="22">
-        <v>8.7389999999999995E-2</v>
-      </c>
-      <c r="G38" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B39" s="22">
-        <v>2</v>
-      </c>
-      <c r="C39" s="22">
-        <v>0.13730000000000001</v>
-      </c>
-      <c r="D39" s="22">
-        <v>6.8640000000000007E-2</v>
-      </c>
-      <c r="E39" s="22">
-        <v>0.70109999999999995</v>
-      </c>
-      <c r="F39" s="22">
-        <v>1.2829999999999999E-2</v>
-      </c>
-      <c r="G39" s="22">
-        <v>0.86199999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B40" s="22">
-        <v>92</v>
-      </c>
-      <c r="C40" s="22">
-        <v>9.0068999999999999</v>
-      </c>
-      <c r="D40" s="22">
-        <v>9.7900000000000001E-2</v>
-      </c>
-      <c r="E40" s="22">
-        <v>0.84147000000000005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B41" s="22">
-        <v>97</v>
-      </c>
-      <c r="C41" s="22">
-        <v>10.703799999999999</v>
-      </c>
-      <c r="D41" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="61" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="22" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>1482</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>1484</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>1485</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B45" s="22">
-        <v>1</v>
-      </c>
-      <c r="C45" s="22">
-        <v>1.0861000000000001</v>
-      </c>
-      <c r="D45" s="22">
-        <v>1.08613</v>
-      </c>
-      <c r="E45" s="22">
-        <v>8.7836999999999996</v>
-      </c>
-      <c r="F45" s="22">
-        <v>0.20699000000000001</v>
-      </c>
-      <c r="G45" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B46" s="22">
-        <v>2</v>
-      </c>
-      <c r="C46" s="22">
-        <v>0.49159999999999998</v>
-      </c>
-      <c r="D46" s="22">
-        <v>0.24579000000000001</v>
-      </c>
-      <c r="E46" s="22">
-        <v>1.9878</v>
-      </c>
-      <c r="F46" s="22">
-        <v>9.3689999999999996E-2</v>
-      </c>
-      <c r="G46" s="22">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B47" s="22">
-        <v>2</v>
-      </c>
-      <c r="C47" s="22">
-        <v>0.45450000000000002</v>
-      </c>
-      <c r="D47" s="22">
-        <v>0.22725000000000001</v>
-      </c>
-      <c r="E47" s="22">
-        <v>1.8378000000000001</v>
-      </c>
-      <c r="F47" s="22">
-        <v>8.6620000000000003E-2</v>
-      </c>
-      <c r="G47" s="22">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B48" s="22">
-        <v>26</v>
-      </c>
-      <c r="C48" s="22">
-        <v>3.2149999999999999</v>
-      </c>
-      <c r="D48" s="22">
-        <v>0.12365</v>
-      </c>
-      <c r="E48" s="22">
-        <v>0.61270000000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B49" s="22">
-        <v>31</v>
-      </c>
-      <c r="C49" s="22">
-        <v>5.2472000000000003</v>
-      </c>
-      <c r="D49" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="61" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>1485</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B53" s="22">
-        <v>1</v>
-      </c>
-      <c r="C53" s="22">
-        <v>0.31340000000000001</v>
-      </c>
-      <c r="D53" s="22">
-        <v>0.31341999999999998</v>
-      </c>
-      <c r="E53" s="22">
-        <v>2.5860699999999999</v>
-      </c>
-      <c r="F53" s="22">
-        <v>7.8049999999999994E-2</v>
-      </c>
-      <c r="G53" s="22">
-        <v>2E-3</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B54" s="22">
-        <v>2</v>
-      </c>
-      <c r="C54" s="22">
-        <v>0.45850000000000002</v>
-      </c>
-      <c r="D54" s="22">
-        <v>0.22922999999999999</v>
-      </c>
-      <c r="E54" s="22">
-        <v>1.8913500000000001</v>
-      </c>
-      <c r="F54" s="22">
-        <v>0.11416</v>
-      </c>
-      <c r="G54" s="22">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B55" s="22">
-        <v>2</v>
-      </c>
-      <c r="C55" s="22">
-        <v>0.21410000000000001</v>
-      </c>
-      <c r="D55" s="22">
-        <v>0.10703</v>
-      </c>
-      <c r="E55" s="22">
-        <v>0.88310999999999995</v>
-      </c>
-      <c r="F55" s="22">
-        <v>5.33E-2</v>
-      </c>
-      <c r="G55" s="22">
-        <v>0.627</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B56" s="22">
-        <v>25</v>
-      </c>
-      <c r="C56" s="22">
-        <v>3.0299</v>
-      </c>
-      <c r="D56" s="22">
-        <v>0.1212</v>
-      </c>
-      <c r="E56" s="22">
-        <v>0.75448999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B57" s="22">
-        <v>30</v>
-      </c>
-      <c r="C57" s="22">
+      <c r="C68" s="50">
         <v>4.0159000000000002</v>
       </c>
-      <c r="D57" s="22">
-        <v>1</v>
-      </c>
+      <c r="D68" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A43:J43"/>
+  <mergeCells count="8">
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A38:K38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40880,10 +40988,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24C079F-8025-46DB-83AA-5B0569E7164C}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:U59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -40891,18 +40999,17 @@
     <col min="1" max="1" width="22.28515625" style="12" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="12" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="12"/>
+    <col min="4" max="4" width="10" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -40912,9 +41019,8 @@
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -40924,630 +41030,1400 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="22" t="s">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
+      <c r="B4" s="51" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>1540</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B5" s="46">
+        <v>1</v>
+      </c>
+      <c r="C5" s="56">
+        <v>1.0300000000000001E-3</v>
+      </c>
+      <c r="D5" s="56">
+        <v>1.0269999999999999E-3</v>
+      </c>
+      <c r="E5" s="56">
+        <v>0.1464</v>
+      </c>
+      <c r="F5" s="46">
+        <v>1.66E-3</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B6" s="46">
+        <v>8</v>
+      </c>
+      <c r="C6" s="56">
+        <v>0.44689000000000001</v>
+      </c>
+      <c r="D6" s="56">
+        <v>5.5861000000000001E-2</v>
+      </c>
+      <c r="E6" s="56">
+        <v>7.9641000000000002</v>
+      </c>
+      <c r="F6" s="46">
+        <v>0.72113000000000005</v>
+      </c>
+      <c r="G6" s="46">
+        <v>1E-3</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>1480</v>
+      </c>
+      <c r="I6" s="46"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B7" s="46">
+        <v>8</v>
+      </c>
+      <c r="C7" s="56">
+        <v>4.5539999999999997E-2</v>
+      </c>
+      <c r="D7" s="56">
+        <v>5.692E-3</v>
+      </c>
+      <c r="E7" s="56">
+        <v>0.8115</v>
+      </c>
+      <c r="F7" s="46">
+        <v>7.3480000000000004E-2</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
         <v>1481</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="B8" s="46">
+        <v>18</v>
+      </c>
+      <c r="C8" s="56">
+        <v>0.12625</v>
+      </c>
+      <c r="D8" s="56">
+        <v>7.0140000000000003E-3</v>
+      </c>
+      <c r="E8" s="56">
+        <v>0.20372999999999999</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
         <v>1482</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>1484</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>1485</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>1486</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B5" s="22">
+      <c r="B9" s="46">
+        <v>35</v>
+      </c>
+      <c r="C9" s="56">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="D9" s="56">
         <v>1</v>
       </c>
-      <c r="C5" s="22">
-        <v>1.0300000000000001E-3</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1.0269999999999999E-3</v>
-      </c>
-      <c r="E5" s="22">
-        <v>0.1047</v>
-      </c>
-      <c r="F5" s="22">
-        <v>1.66E-3</v>
-      </c>
-      <c r="G5" s="22">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B6" s="22">
-        <v>1</v>
-      </c>
-      <c r="C6" s="22">
-        <v>0.27017999999999998</v>
-      </c>
-      <c r="D6" s="22">
-        <v>0.270181</v>
-      </c>
-      <c r="E6" s="22">
-        <v>27.557500000000001</v>
-      </c>
-      <c r="F6" s="22">
-        <v>0.43598999999999999</v>
-      </c>
-      <c r="G6" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>1487</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B7" s="22">
-        <v>1</v>
-      </c>
-      <c r="C7" s="22">
-        <v>3.4759999999999999E-2</v>
-      </c>
-      <c r="D7" s="22">
-        <v>3.4757999999999997E-2</v>
-      </c>
-      <c r="E7" s="22">
-        <v>3.5451000000000001</v>
-      </c>
-      <c r="F7" s="22">
-        <v>5.6090000000000001E-2</v>
-      </c>
-      <c r="G7" s="22">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>1491</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B8" s="22">
-        <v>32</v>
-      </c>
-      <c r="C8" s="22">
-        <v>0.31374000000000002</v>
-      </c>
-      <c r="D8" s="22">
-        <v>9.8040000000000002E-3</v>
-      </c>
-      <c r="E8" s="22">
-        <v>0.50627</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B9" s="22">
-        <v>35</v>
-      </c>
-      <c r="C9" s="22">
-        <v>0.61970000000000003</v>
-      </c>
-      <c r="D9" s="22">
-        <v>1</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>1482</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>1485</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>1486</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B13" s="19">
-        <v>1</v>
-      </c>
-      <c r="C13" s="19">
-        <v>0.10246</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0.102461</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1.9470099999999999</v>
-      </c>
-      <c r="F13" s="19">
-        <v>7.034E-2</v>
-      </c>
-      <c r="G13" s="19">
-        <v>0.19</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B14" s="19">
-        <v>6</v>
-      </c>
-      <c r="C14" s="19">
-        <v>0.39695000000000003</v>
-      </c>
-      <c r="D14" s="19">
-        <v>6.6157999999999995E-2</v>
-      </c>
-      <c r="E14" s="19">
-        <v>1.2571699999999999</v>
-      </c>
-      <c r="F14" s="19">
-        <v>0.27250000000000002</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0.31</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B15" s="19">
-        <v>6</v>
-      </c>
-      <c r="C15" s="19">
-        <v>0.22054000000000001</v>
-      </c>
-      <c r="D15" s="19">
-        <v>3.6755999999999997E-2</v>
-      </c>
-      <c r="E15" s="19">
-        <v>0.69845000000000002</v>
-      </c>
-      <c r="F15" s="19">
-        <v>0.15139</v>
-      </c>
-      <c r="G15" s="19">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B16" s="19">
-        <v>14</v>
-      </c>
-      <c r="C16" s="19">
-        <v>0.73675000000000002</v>
-      </c>
-      <c r="D16" s="19">
-        <v>5.2624999999999998E-2</v>
-      </c>
-      <c r="E16" s="19">
-        <v>0.50577000000000005</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B17" s="22">
-        <v>27</v>
-      </c>
-      <c r="C17" s="22">
-        <v>1.45669</v>
-      </c>
-      <c r="D17" s="22">
-        <v>1</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
-        <v>1545</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="19" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>1482</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>1484</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>1485</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>1486</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B21" s="55">
-        <v>1</v>
-      </c>
-      <c r="C21" s="55">
-        <v>2.6620000000000001E-2</v>
-      </c>
-      <c r="D21" s="55">
-        <v>2.6616999999999998E-2</v>
-      </c>
-      <c r="E21" s="55">
-        <v>0.28383999999999998</v>
-      </c>
-      <c r="F21" s="55">
-        <v>5.3800000000000001E-2</v>
-      </c>
-      <c r="G21" s="55">
-        <v>0.873</v>
-      </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="22"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B22" s="55">
-        <v>1</v>
-      </c>
-      <c r="C22" s="55">
-        <v>4.6190000000000002E-2</v>
-      </c>
-      <c r="D22" s="55">
-        <v>4.6191999999999997E-2</v>
-      </c>
-      <c r="E22" s="55">
-        <v>0.49258000000000002</v>
-      </c>
-      <c r="F22" s="55">
-        <v>9.3369999999999995E-2</v>
-      </c>
-      <c r="G22" s="55">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B23" s="55">
-        <v>1</v>
-      </c>
-      <c r="C23" s="55">
-        <v>4.6800000000000001E-2</v>
-      </c>
-      <c r="D23" s="55">
-        <v>4.6801000000000002E-2</v>
-      </c>
-      <c r="E23" s="55">
-        <v>0.49907000000000001</v>
-      </c>
-      <c r="F23" s="55">
-        <v>9.4600000000000004E-2</v>
-      </c>
-      <c r="G23" s="55">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B24" s="55">
-        <v>4</v>
-      </c>
-      <c r="C24" s="55">
-        <v>0.37509999999999999</v>
-      </c>
-      <c r="D24" s="55">
-        <v>9.3775999999999998E-2</v>
-      </c>
-      <c r="E24" s="55">
-        <v>0.75822000000000001</v>
-      </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B25" s="55">
-        <v>7</v>
-      </c>
-      <c r="C25" s="55">
-        <v>0.49471999999999999</v>
-      </c>
-      <c r="D25" s="55">
-        <v>1</v>
-      </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="22"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="22"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="22"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="22"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="22"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="22"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="22"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="22"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J35" s="22"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J36" s="22"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="57"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="46"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="53"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="53"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="53"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="53"/>
+      <c r="U46" s="53"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="53"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="54"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="53"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="53"/>
+      <c r="U51" s="53"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="53"/>
+      <c r="U52" s="53"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="53"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="53"/>
+      <c r="U53" s="53"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="53"/>
+      <c r="R54" s="53"/>
+      <c r="S54" s="53"/>
+      <c r="T54" s="53"/>
+      <c r="U54" s="53"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="53"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="53"/>
+      <c r="T55" s="53"/>
+      <c r="U55" s="53"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="53"/>
+      <c r="R56" s="53"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="53"/>
+      <c r="U56" s="53"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="53"/>
+      <c r="S57" s="53"/>
+      <c r="T57" s="53"/>
+      <c r="U57" s="53"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="53"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="53"/>
+      <c r="P58" s="53"/>
+      <c r="Q58" s="53"/>
+      <c r="R58" s="53"/>
+      <c r="S58" s="53"/>
+      <c r="T58" s="53"/>
+      <c r="U58" s="53"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="53"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="53"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="53"/>
+      <c r="T59" s="53"/>
+      <c r="U59" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41558,7 +42434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278DBFE7-3008-4EB8-882D-1AFF1B4A462F}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -41572,8 +42448,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
-        <v>1527</v>
+      <c r="A1" s="47" t="s">
+        <v>1518</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -41581,16 +42457,16 @@
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:6" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>132</v>
@@ -41607,7 +42483,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B4" s="14">
         <v>8.8400000000000006E-2</v>
